--- a/documents/bug backlog.xlsx
+++ b/documents/bug backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yevb9\OneDrive\Desktop\final project\StudyBuddy2\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hadar\Desktop\StudyBuddy2\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286892BD-2A82-4407-A917-2A79437B1D4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBFB3C32-02F9-48D6-A87B-A8C456BD02D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Description</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Click Add\Remove on several Buddies at once</t>
+  </si>
+  <si>
+    <t>need to add in firebase new folder unique id and not a name</t>
   </si>
 </sst>
 </file>
@@ -385,22 +388,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="53.42578125" customWidth="1"/>
-    <col min="2" max="2" width="49.28515625" customWidth="1"/>
+    <col min="1" max="1" width="53.453125" customWidth="1"/>
+    <col min="2" max="2" width="49.26953125" customWidth="1"/>
     <col min="3" max="3" width="53" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.54296875" customWidth="1"/>
+    <col min="5" max="5" width="15.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -417,7 +420,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -431,7 +434,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -443,6 +446,11 @@
       </c>
       <c r="D3" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
